--- a/excel/ac2.xlsx
+++ b/excel/ac2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">thanh123123</t>
   </si>
@@ -44,6 +44,66 @@
   </si>
   <si>
     <t xml:space="preserve">conmua@126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh123136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmua@136</t>
   </si>
 </sst>
 </file>
@@ -141,10 +201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -188,6 +248,86 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
